--- a/report.xlsx
+++ b/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusidi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp4\htdocs\appku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>User Profile</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>SETTING</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
   </si>
 </sst>
 </file>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +614,22 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -668,20 +695,32 @@
       <c r="B18" t="s">
         <v>28</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -700,6 +739,27 @@
       <c r="A24" t="s">
         <v>4</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -709,6 +769,33 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp4\htdocs\appku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>User Profile</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>SETTING</t>
-  </si>
-  <si>
-    <t>form</t>
   </si>
   <si>
     <t>LOGIN</t>
@@ -479,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +612,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
@@ -626,7 +623,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>17</v>
@@ -656,6 +653,9 @@
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -664,6 +664,9 @@
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -672,12 +675,18 @@
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -773,7 +782,7 @@
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -785,17 +794,17 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
